--- a/medicine/Mort/Cimetière_de_Forest_Hill_(Utica)/Cimetière_de_Forest_Hill_(Utica).xlsx
+++ b/medicine/Mort/Cimetière_de_Forest_Hill_(Utica)/Cimetière_de_Forest_Hill_(Utica).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Forest_Hill_(Utica)</t>
+          <t>Cimetière_de_Forest_Hill_(Utica)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le cimetière de Forest Hill est situé à Utica dans l'État de New York.
-Fondé en 1848, il a été dessiné par l'architecte paysagiste Almerin Hotchkiss, qui a également conçu le cimetière de Green-Wood à New York et le cimetière Bellefontaine de Saint-Louis[1]. La « pierre sacrée » de la nation iroquoise des Onneiouts (en anglais les Oneidas) est déposée dans l'enceinte du cimetière à l'ouverture de celui-ci en 1850[2],[3].
+Fondé en 1848, il a été dessiné par l'architecte paysagiste Almerin Hotchkiss, qui a également conçu le cimetière de Green-Wood à New York et le cimetière Bellefontaine de Saint-Louis. La « pierre sacrée » de la nation iroquoise des Onneiouts (en anglais les Oneidas) est déposée dans l'enceinte du cimetière à l'ouverture de celui-ci en 1850,.
 Plusieurs personnalités américaines sont enterrées au cimetière de Forest Hill, dont : 
 Roscoe Conkling (1829 – 1888), sénateur de l'État de New York ;
 Harold Frederic (1856 – 1898), journaliste et romancier américain ;
